--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="274">
   <si>
     <t>Pāli1</t>
   </si>
@@ -238,24 +238,15 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -643,22 +634,13 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
   </si>
   <si>
     <t>bowl; alms bowl</t>
@@ -1211,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,16 +1221,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,16 +1238,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1273,16 +1255,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1290,16 +1272,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1307,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1324,16 +1306,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1341,16 +1323,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1358,16 +1340,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1375,16 +1357,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1392,16 +1374,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1409,16 +1391,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1426,16 +1408,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1443,16 +1425,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1460,16 +1442,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1477,16 +1459,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1494,16 +1476,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1511,16 +1493,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1528,16 +1510,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1545,16 +1527,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1562,16 +1544,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1579,16 +1561,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1596,16 +1578,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1613,16 +1595,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1630,16 +1612,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1647,16 +1629,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1664,16 +1646,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1681,16 +1663,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1698,16 +1680,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1715,16 +1697,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1732,16 +1714,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1749,16 +1731,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1766,16 +1748,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1783,16 +1765,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1800,16 +1782,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1817,16 +1799,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1834,16 +1816,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1851,16 +1833,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1868,16 +1850,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1885,16 +1867,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1902,16 +1884,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1919,16 +1901,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1936,16 +1918,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1953,16 +1935,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1970,16 +1952,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1987,16 +1969,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2004,16 +1986,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2021,16 +2003,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2038,16 +2020,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2055,16 +2037,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2072,16 +2054,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2089,16 +2071,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2106,16 +2088,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2123,16 +2105,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2140,16 +2122,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2157,16 +2139,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2174,16 +2156,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2191,16 +2173,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2208,16 +2190,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2225,16 +2207,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2242,16 +2224,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2259,16 +2241,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2276,16 +2258,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2293,16 +2275,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2310,16 +2292,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2327,16 +2309,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2344,16 +2326,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2361,16 +2343,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2378,16 +2360,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2395,16 +2377,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2412,16 +2394,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2429,16 +2411,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2446,16 +2428,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2463,16 +2445,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2480,16 +2462,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2497,16 +2479,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2514,16 +2496,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2531,16 +2513,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2548,16 +2530,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2565,16 +2547,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2582,16 +2564,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2599,16 +2581,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2616,16 +2598,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2633,16 +2615,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2650,16 +2632,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2667,16 +2649,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2684,16 +2666,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2701,16 +2683,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2718,16 +2700,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2735,16 +2717,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2752,16 +2734,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2769,16 +2751,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2786,16 +2768,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2803,16 +2785,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2820,16 +2802,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2837,16 +2819,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2854,16 +2836,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2871,16 +2853,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2888,16 +2870,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2905,16 +2887,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100" t="s">
         <v>273</v>
-      </c>
-      <c r="E100" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2922,16 +2904,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" t="s">
         <v>273</v>
-      </c>
-      <c r="E101" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2939,16 +2921,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2956,16 +2938,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2973,16 +2955,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E104" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2990,16 +2972,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D105" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E105" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3007,16 +2989,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D106" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3024,16 +3006,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3041,16 +3023,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3058,16 +3040,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E109" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3075,16 +3057,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E110" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3092,16 +3074,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3109,16 +3091,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E112" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3126,16 +3108,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3143,16 +3125,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3160,16 +3142,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3177,16 +3159,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3194,16 +3176,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D117" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3211,16 +3193,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E118" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3228,16 +3210,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3245,16 +3227,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E120" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3262,16 +3244,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D121" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3279,16 +3261,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D122" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3296,16 +3278,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D123" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E123" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3313,16 +3295,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3330,16 +3312,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D125" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3347,16 +3329,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D126" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3364,16 +3346,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D127" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E127" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3381,16 +3363,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3398,16 +3380,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3415,67 +3397,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" t="s">
-        <v>277</v>
-      </c>
-      <c r="E131" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" t="s">
-        <v>270</v>
-      </c>
-      <c r="D132" t="s">
-        <v>277</v>
-      </c>
-      <c r="E132" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" t="s">
-        <v>271</v>
-      </c>
-      <c r="D133" t="s">
-        <v>277</v>
-      </c>
-      <c r="E133" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="302">
   <si>
     <t>Pāli1</t>
   </si>
@@ -40,12 +40,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -67,6 +91,9 @@
     <t>puggala</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>ānanda 2</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>niraya</t>
   </si>
   <si>
@@ -217,6 +247,9 @@
     <t>sahāya</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -238,15 +271,24 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -280,9 +322,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -352,6 +391,9 @@
     <t>vadati 1</t>
   </si>
   <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>bhāsati 1</t>
   </si>
   <si>
@@ -436,12 +478,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -463,6 +529,9 @@
     <t>an individual; a person</t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -517,6 +586,9 @@
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>hell; lit. no good fortune</t>
   </si>
   <si>
@@ -613,6 +685,9 @@
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -634,15 +709,24 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -676,9 +760,6 @@
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
   </si>
   <si>
-    <t>mental phenomena; mind object</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -746,6 +827,9 @@
   </si>
   <si>
     <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
   </si>
   <si>
     <t>says; speaks</t>
@@ -1193,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1238,16 +1322,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1255,16 +1339,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1272,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1289,16 +1373,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1306,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1323,16 +1407,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1340,16 +1424,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1357,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1374,16 +1458,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1391,16 +1475,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1408,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1425,16 +1509,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1442,16 +1526,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1459,16 +1543,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1476,16 +1560,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1493,16 +1577,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1510,16 +1594,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1527,16 +1611,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1544,16 +1628,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1561,16 +1645,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1578,16 +1662,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1595,16 +1679,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1612,16 +1696,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1629,16 +1713,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1646,16 +1730,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1663,16 +1747,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1680,16 +1764,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1697,16 +1781,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1714,16 +1798,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1731,16 +1815,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1748,16 +1832,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1765,16 +1849,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1782,16 +1866,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1799,16 +1883,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1816,16 +1900,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1833,16 +1917,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1850,16 +1934,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1867,16 +1951,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1884,16 +1968,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1901,16 +1985,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1918,16 +2002,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1935,16 +2019,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1952,16 +2036,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1969,16 +2053,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1986,16 +2070,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2003,16 +2087,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2020,16 +2104,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2037,16 +2121,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2054,16 +2138,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2071,16 +2155,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2088,16 +2172,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2105,16 +2189,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2122,16 +2206,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2139,16 +2223,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2156,16 +2240,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2173,16 +2257,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E58" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2190,16 +2274,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E59" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2207,16 +2291,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2224,16 +2308,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2241,16 +2325,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2258,16 +2342,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2275,16 +2359,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2292,16 +2376,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2309,16 +2393,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2326,16 +2410,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2343,16 +2427,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2360,16 +2444,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2377,16 +2461,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2394,16 +2478,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2411,16 +2495,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2428,16 +2512,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2445,16 +2529,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2462,16 +2546,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2479,16 +2563,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2496,16 +2580,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2513,16 +2597,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2530,16 +2614,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2547,16 +2631,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2564,16 +2648,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2581,16 +2665,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2598,16 +2682,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2615,16 +2699,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E84" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2632,16 +2716,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2649,16 +2733,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2666,16 +2750,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E87" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2683,16 +2767,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2700,16 +2784,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2717,16 +2801,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E90" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2734,16 +2818,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2751,16 +2835,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E92" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2768,16 +2852,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2785,16 +2869,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2802,16 +2886,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2819,16 +2903,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D96" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2836,16 +2920,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E97" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2853,16 +2937,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2870,16 +2954,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2887,16 +2971,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2904,16 +2988,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2921,16 +3005,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D102" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2938,16 +3022,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2955,16 +3039,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2972,16 +3056,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D105" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2989,16 +3073,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D106" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3006,16 +3090,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D107" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3023,16 +3107,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3040,16 +3124,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3057,16 +3141,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3074,16 +3158,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3091,16 +3175,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D112" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3108,16 +3192,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E113" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3125,16 +3209,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E114" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3142,16 +3226,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D115" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E115" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3159,16 +3243,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E116" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3176,16 +3260,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E117" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3193,16 +3277,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D118" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E118" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3210,16 +3294,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E119" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3227,16 +3311,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E120" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3244,16 +3328,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E121" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3261,16 +3345,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D122" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E122" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3278,16 +3362,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E123" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3295,16 +3379,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E124" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3312,16 +3396,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D125" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E125" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3329,16 +3413,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D126" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E126" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3346,16 +3430,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D127" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E127" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3363,16 +3447,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D128" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E128" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3380,16 +3464,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D129" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E129" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3397,16 +3481,254 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" t="s">
+        <v>296</v>
+      </c>
+      <c r="E130" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131" t="s">
+        <v>280</v>
+      </c>
+      <c r="D131" t="s">
+        <v>296</v>
+      </c>
+      <c r="E131" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="C130" t="s">
-        <v>265</v>
-      </c>
-      <c r="D130" t="s">
-        <v>271</v>
-      </c>
-      <c r="E130" t="s">
-        <v>273</v>
+      <c r="B132" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+      <c r="D132" t="s">
+        <v>296</v>
+      </c>
+      <c r="E132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" t="s">
+        <v>282</v>
+      </c>
+      <c r="D133" t="s">
+        <v>296</v>
+      </c>
+      <c r="E133" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" t="s">
+        <v>296</v>
+      </c>
+      <c r="E134" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" t="s">
+        <v>297</v>
+      </c>
+      <c r="E135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136" t="s">
+        <v>297</v>
+      </c>
+      <c r="E136" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" t="s">
+        <v>299</v>
+      </c>
+      <c r="E139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" t="s">
+        <v>299</v>
+      </c>
+      <c r="E140" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" t="s">
+        <v>299</v>
+      </c>
+      <c r="E141" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" t="s">
+        <v>299</v>
+      </c>
+      <c r="E142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>292</v>
+      </c>
+      <c r="D143" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" t="s">
+        <v>293</v>
+      </c>
+      <c r="D144" t="s">
+        <v>299</v>
+      </c>
+      <c r="E144" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -49,12 +49,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -397,6 +388,9 @@
     <t>bhāsati 1</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>tasati 1</t>
   </si>
   <si>
@@ -433,6 +427,9 @@
     <t>ceteti 2</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -487,12 +487,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -709,9 +703,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -775,7 +766,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -835,6 +826,9 @@
     <t>says; speaks</t>
   </si>
   <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>is afraid (of); fears</t>
   </si>
   <si>
@@ -871,6 +865,9 @@
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
+    <t>undergoes; feels; experiences</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers</t>
   </si>
   <si>
@@ -884,6 +881,9 @@
   </si>
   <si>
     <t>he must hear! may he listen!</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
   </si>
   <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
@@ -3096,7 +3096,7 @@
         <v>256</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
         <v>300</v>
@@ -3113,7 +3113,7 @@
         <v>257</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E108" t="s">
         <v>300</v>
@@ -3133,7 +3133,7 @@
         <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3147,10 +3147,10 @@
         <v>259</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3164,10 +3164,10 @@
         <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3175,13 +3175,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
         <v>261</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
         <v>301</v>
@@ -3192,13 +3192,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s">
         <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E113" t="s">
         <v>301</v>
@@ -3209,13 +3209,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
         <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E114" t="s">
         <v>301</v>
@@ -3226,7 +3226,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
         <v>264</v>
@@ -3277,7 +3277,7 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" t="s">
         <v>267</v>
@@ -3538,7 +3538,7 @@
         <v>282</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E133" t="s">
         <v>301</v>
@@ -3555,7 +3555,7 @@
         <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E134" t="s">
         <v>301</v>
@@ -3600,13 +3600,13 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C137" t="s">
         <v>286</v>
       </c>
       <c r="D137" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E137" t="s">
         <v>301</v>
@@ -3617,13 +3617,13 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" t="s">
         <v>287</v>
       </c>
       <c r="D138" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E138" t="s">
         <v>301</v>
@@ -3634,7 +3634,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C139" t="s">
         <v>288</v>
@@ -3651,7 +3651,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
         <v>289</v>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="303">
   <si>
     <t>Pāli1</t>
   </si>
@@ -430,6 +430,9 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>paṭiggaheti</t>
+  </si>
+  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -868,6 +871,9 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers</t>
   </si>
   <si>
@@ -881,9 +887,6 @@
   </si>
   <si>
     <t>he must hear! may he listen!</t>
-  </si>
-  <si>
-    <t>takes; accepts; receives</t>
   </si>
   <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
@@ -1277,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,16 +1308,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1322,16 +1325,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1339,16 +1342,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1356,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1373,16 +1376,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1393,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,16 +1410,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1424,16 +1427,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1441,16 +1444,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1458,16 +1461,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1475,16 +1478,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1492,16 +1495,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1509,16 +1512,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1526,16 +1529,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1543,16 +1546,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1560,16 +1563,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1577,16 +1580,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1594,16 +1597,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1611,16 +1614,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1628,16 +1631,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1645,16 +1648,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1662,16 +1665,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1679,16 +1682,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1696,16 +1699,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1713,16 +1716,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1730,16 +1733,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1747,16 +1750,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1764,16 +1767,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1781,16 +1784,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1798,16 +1801,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1815,16 +1818,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1832,16 +1835,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1849,16 +1852,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1866,16 +1869,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1883,16 +1886,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1900,16 +1903,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1917,16 +1920,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1934,16 +1937,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1951,16 +1954,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1968,16 +1971,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1985,16 +1988,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2002,16 +2005,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2019,16 +2022,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2036,16 +2039,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2053,16 +2056,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2070,16 +2073,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2087,16 +2090,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2104,16 +2107,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2121,16 +2124,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2138,16 +2141,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2155,16 +2158,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2172,16 +2175,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2189,16 +2192,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2206,16 +2209,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2223,16 +2226,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2240,16 +2243,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2257,16 +2260,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2274,16 +2277,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2291,16 +2294,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2308,16 +2311,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2325,16 +2328,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2342,16 +2345,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2359,16 +2362,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2376,16 +2379,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2393,16 +2396,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2410,16 +2413,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2427,16 +2430,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2444,16 +2447,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2461,16 +2464,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2478,16 +2481,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2495,16 +2498,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2512,16 +2515,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2529,16 +2532,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2546,16 +2549,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2563,16 +2566,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2580,16 +2583,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2597,16 +2600,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2614,16 +2617,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2631,16 +2634,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2648,16 +2651,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2665,16 +2668,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2682,16 +2685,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2699,16 +2702,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2716,16 +2719,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2733,16 +2736,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2750,16 +2753,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2767,16 +2770,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2784,16 +2787,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2801,16 +2804,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2818,16 +2821,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2835,16 +2838,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2852,16 +2855,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2869,16 +2872,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2886,16 +2889,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2903,16 +2906,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2920,16 +2923,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2937,16 +2940,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2954,16 +2957,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2971,16 +2974,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2988,16 +2991,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D101" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3005,16 +3008,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3022,16 +3025,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3039,16 +3042,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3056,16 +3059,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3073,16 +3076,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3090,16 +3093,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3107,16 +3110,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3124,16 +3127,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E109" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3141,16 +3144,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3158,16 +3161,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3175,16 +3178,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E112" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3192,16 +3195,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3209,16 +3212,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3226,16 +3229,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E115" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3243,16 +3246,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3260,16 +3263,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3277,16 +3280,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3294,16 +3297,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D119" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3311,16 +3314,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E120" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3328,16 +3331,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D121" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3345,16 +3348,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3362,16 +3365,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3379,16 +3382,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3396,16 +3399,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3413,16 +3416,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D126" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3430,16 +3433,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3447,16 +3450,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3464,16 +3467,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3481,16 +3484,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3498,16 +3501,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D131" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3515,16 +3518,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3532,16 +3535,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3549,16 +3552,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3566,16 +3569,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3583,16 +3586,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3603,13 +3606,13 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D137" t="s">
         <v>298</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3617,16 +3620,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D138" t="s">
         <v>299</v>
       </c>
       <c r="E138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3637,13 +3640,13 @@
         <v>150</v>
       </c>
       <c r="C139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3651,16 +3654,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3668,16 +3671,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C141" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3685,16 +3688,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
         <v>291</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3702,16 +3705,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
         <v>292</v>
       </c>
       <c r="D143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3719,16 +3722,33 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
         <v>293</v>
       </c>
       <c r="D144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E144" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -634,7 +634,7 @@
     <t>abandoning; giving up; renunciation</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
@@ -853,7 +853,7 @@
     <t>leads (to); is useful (for); is conducive to</t>
   </si>
   <si>
-    <t>goes; moves; walks</t>
+    <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
     <t>lives; abides; dwells</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
   <si>
     <t>Pāli1</t>
   </si>
@@ -55,9 +55,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -67,7 +64,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -103,7 +100,7 @@
     <t>samaya 1</t>
   </si>
   <si>
-    <t>attha 1</t>
+    <t>attha 01</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -163,7 +160,7 @@
     <t>soka</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -178,7 +175,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>samatha 1</t>
@@ -256,13 +253,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -274,7 +271,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -313,7 +310,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -391,12 +388,6 @@
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>tasati 1</t>
-  </si>
-  <si>
-    <t>āmantayati 1</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -430,9 +421,6 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>paṭiggaheti</t>
-  </si>
-  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>paṭibhāti</t>
   </si>
   <si>
-    <t>jināti 2</t>
-  </si>
-  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -532,7 +514,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -697,7 +679,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -832,12 +814,6 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>is afraid (of); fears</t>
-  </si>
-  <si>
-    <t>adresses; speaks to; tells</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -871,28 +847,25 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>bears in mind; keeps in mind; remembers</t>
+  </si>
+  <si>
+    <t>gives; offers; hands</t>
+  </si>
+  <si>
+    <t>come; come here!</t>
+  </si>
+  <si>
+    <t>listens; hears</t>
+  </si>
+  <si>
+    <t>he must hear! may he listen!</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
-  </si>
-  <si>
-    <t>surpasses; beats; wins (over)</t>
   </si>
   <si>
     <t>knows; understands</t>
@@ -1280,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,16 +1281,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1325,16 +1298,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1342,16 +1315,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1359,16 +1332,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1376,16 +1349,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1393,16 +1366,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1410,16 +1383,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1427,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1444,16 +1417,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1461,16 +1434,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1478,16 +1451,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1495,16 +1468,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1512,16 +1485,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1529,16 +1502,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1546,16 +1519,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1563,16 +1536,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1580,16 +1553,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1597,16 +1570,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1614,16 +1587,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1631,16 +1604,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1648,16 +1621,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1665,16 +1638,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E23" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1682,16 +1655,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1699,16 +1672,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1716,16 +1689,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1733,16 +1706,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1750,16 +1723,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1767,16 +1740,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1784,16 +1757,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1801,16 +1774,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1818,16 +1791,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1835,16 +1808,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1852,16 +1825,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1869,16 +1842,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1886,16 +1859,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1903,16 +1876,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1920,16 +1893,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1937,16 +1910,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1954,16 +1927,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1971,16 +1944,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1988,16 +1961,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2005,16 +1978,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2022,16 +1995,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2039,16 +2012,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2056,16 +2029,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2073,16 +2046,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2090,16 +2063,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2107,16 +2080,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2124,16 +2097,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2141,16 +2114,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2158,16 +2131,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2175,16 +2148,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2192,16 +2165,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2209,16 +2182,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2226,16 +2199,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2243,16 +2216,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2260,16 +2233,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2277,16 +2250,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2294,16 +2267,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2311,16 +2284,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2328,16 +2301,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2345,16 +2318,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2362,16 +2335,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2379,16 +2352,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2396,16 +2369,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2413,16 +2386,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2430,16 +2403,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2447,16 +2420,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2464,16 +2437,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2481,16 +2454,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2498,16 +2471,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2515,16 +2488,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2532,16 +2505,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2549,16 +2522,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2566,16 +2539,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2583,16 +2556,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2600,16 +2573,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2617,16 +2590,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2634,16 +2607,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2651,16 +2624,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2668,16 +2641,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2685,16 +2658,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2702,16 +2675,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2719,16 +2692,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2736,16 +2709,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2753,16 +2726,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2770,16 +2743,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2787,16 +2760,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2804,16 +2777,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2821,16 +2794,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2838,16 +2811,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2855,16 +2828,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2872,16 +2845,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2889,16 +2862,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2906,16 +2879,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E96" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2923,16 +2896,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2940,16 +2913,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E98" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2957,16 +2930,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2974,16 +2947,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E100" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2991,16 +2964,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3008,16 +2981,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3025,16 +2998,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E103" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3042,16 +3015,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3059,16 +3032,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3076,16 +3049,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E106" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3093,16 +3066,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E107" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3110,16 +3083,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3127,16 +3100,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3144,16 +3117,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3161,16 +3134,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3178,16 +3151,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D112" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E112" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3195,16 +3168,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3212,16 +3185,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D114" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E114" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3229,16 +3202,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E115" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3246,16 +3219,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D116" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E116" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3263,16 +3236,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D117" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E117" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3280,16 +3253,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E118" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3297,16 +3270,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D119" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E119" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3314,16 +3287,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D120" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3331,16 +3304,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E121" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3348,16 +3321,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D122" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E122" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3365,16 +3338,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E123" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3382,16 +3355,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3399,16 +3372,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3416,16 +3389,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3433,16 +3406,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E127" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3450,16 +3423,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3467,16 +3440,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3484,16 +3457,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E130" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3501,16 +3474,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E131" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3518,16 +3491,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D132" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3535,16 +3508,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C133" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D133" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E133" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3552,16 +3525,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D134" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E134" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3569,16 +3542,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D135" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E135" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3586,16 +3559,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D136" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E136" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3603,16 +3576,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D137" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E137" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3620,16 +3593,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3637,16 +3610,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D139" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E139" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3654,101 +3627,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D140" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" t="s">
-        <v>285</v>
-      </c>
-      <c r="D141" t="s">
-        <v>300</v>
-      </c>
-      <c r="E141" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" t="s">
-        <v>150</v>
-      </c>
-      <c r="C142" t="s">
-        <v>291</v>
-      </c>
-      <c r="D142" t="s">
-        <v>300</v>
-      </c>
-      <c r="E142" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" t="s">
-        <v>150</v>
-      </c>
-      <c r="C143" t="s">
-        <v>292</v>
-      </c>
-      <c r="D143" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" t="s">
-        <v>150</v>
-      </c>
-      <c r="C144" t="s">
         <v>293</v>
-      </c>
-      <c r="D144" t="s">
-        <v>300</v>
-      </c>
-      <c r="E144" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" t="s">
-        <v>150</v>
-      </c>
-      <c r="C145" t="s">
-        <v>294</v>
-      </c>
-      <c r="D145" t="s">
-        <v>300</v>
-      </c>
-      <c r="E145" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -52,7 +52,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -367,7 +367,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -478,7 +478,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -487,7 +487,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -559,7 +559,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -40,7 +40,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -55,7 +55,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -82,7 +82,7 @@
     <t>puggala</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -91,7 +91,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>putta 1</t>
@@ -112,7 +112,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -130,7 +130,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -166,10 +166,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -250,13 +250,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -286,7 +286,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -325,19 +325,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -349,7 +349,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -406,7 +406,7 @@
     <t>gacchati 1</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -421,16 +421,16 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -832,7 +832,7 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -481,7 +481,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -79,6 +79,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>puggala</t>
   </si>
   <si>
@@ -268,39 +271,39 @@
     <t>kassapa 1</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -337,7 +337,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -505,6 +505,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>an individual; a person</t>
   </si>
   <si>
@@ -694,39 +697,39 @@
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -749,9 +752,6 @@
   </si>
   <si>
     <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -31,15 +31,171 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -49,6 +205,27 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -61,183 +238,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -349,57 +349,57 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
     <t>saṃvattati</t>
   </si>
   <si>
@@ -457,15 +457,171 @@
     <t>imp</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -475,6 +631,27 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -487,183 +664,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -775,55 +775,55 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
   </si>
   <si>
     <t>leads (to); is useful (for); is conducive to</t>
@@ -3151,7 +3151,7 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
         <v>257</v>
@@ -3185,7 +3185,7 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" t="s">
         <v>259</v>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -70,225 +70,225 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -310,10 +310,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -328,7 +328,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -361,7 +361,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -379,7 +379,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>paṭilabhati</t>
@@ -388,10 +388,10 @@
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>khādati</t>
@@ -412,7 +412,7 @@
     <t>passati 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>ceteti 2</t>
@@ -460,301 +460,301 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>an individual; a person</t>
+    <t>person; individual</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
   </si>
   <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -763,10 +763,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -775,22 +775,22 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -799,16 +799,16 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -817,16 +817,16 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
@@ -841,37 +841,37 @@
     <t>walks; wanders; goes around; travels; fares on</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>knows; understands</t>
   </si>
   <si>
-    <t>reaches; arrives (at); attains; experiences</t>
+    <t>reaches; arrives (at); comes (to)</t>
   </si>
   <si>
     <t>a-masc</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -37,282 +37,282 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -361,60 +361,60 @@
     <t>pajahati</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>ceteti 2</t>
   </si>
   <si>
@@ -436,18 +436,18 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
@@ -463,282 +463,282 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -787,60 +787,60 @@
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
@@ -862,16 +862,16 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
-  </si>
-  <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -3151,7 +3151,7 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
         <v>257</v>
@@ -3440,7 +3440,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
         <v>274</v>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -34,156 +34,192 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>sambodha</t>
   </si>
   <si>
@@ -193,12 +229,6 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -214,9 +244,6 @@
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>vūpasama 1</t>
   </si>
   <si>
@@ -244,15 +271,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -262,9 +283,6 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
@@ -274,18 +292,6 @@
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -310,9 +316,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -373,21 +373,21 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -460,156 +460,192 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>enlightenment; full awakening; perfect understanding</t>
   </si>
   <si>
@@ -619,12 +655,6 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -640,9 +670,6 @@
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
@@ -670,15 +697,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -688,9 +709,6 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
@@ -700,18 +718,6 @@
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>preceptor; teacher</t>
   </si>
   <si>
@@ -736,9 +742,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -748,9 +751,6 @@
     <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -799,21 +799,21 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -847,10 +847,10 @@
     <t>personally experiences; undergoes; feels</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
-  </si>
-  <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
     <t>come!</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
-  <si>
-    <t>Pāli1</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Meaning IN CONTEXT</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
+  <si>
+    <t>pali_1</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>meaning_1</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>sbs_class</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>vinaya 1</t>
@@ -154,9 +157,6 @@
     <t>soka</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>brāhmaṇa 2</t>
   </si>
   <si>
@@ -166,183 +166,183 @@
     <t>bhava 2</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>mallā</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
+    <t>adj</t>
+  </si>
+  <si>
     <t>masc</t>
   </si>
   <si>
@@ -457,6 +460,9 @@
     <t>imp</t>
   </si>
   <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
@@ -580,9 +586,6 @@
     <t>grief; sorrow; sadness</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>arahant; enlightened being; saint; paragon</t>
   </si>
   <si>
@@ -592,183 +595,183 @@
     <t>being; becoming; existence</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
   </si>
   <si>
@@ -874,7 +877,13 @@
     <t>takes; accepts; receives</t>
   </si>
   <si>
+    <t>a-adj</t>
+  </si>
+  <si>
     <t>a-masc</t>
+  </si>
+  <si>
+    <t>a-masc-east</t>
   </si>
   <si>
     <t>a-masc-pl</t>
@@ -1284,13 +1293,13 @@
         <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1298,16 +1307,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1315,16 +1324,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1332,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1349,16 +1358,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1366,16 +1375,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1383,16 +1392,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1400,16 +1409,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1417,16 +1426,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1434,16 +1443,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1451,16 +1460,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1468,16 +1477,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1485,16 +1494,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1502,16 +1511,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1519,16 +1528,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1536,16 +1545,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1553,16 +1562,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1570,16 +1579,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1587,16 +1596,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1604,16 +1613,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1621,16 +1630,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1638,16 +1647,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1655,16 +1664,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1672,16 +1681,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1689,16 +1698,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1706,16 +1715,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1723,16 +1732,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1740,16 +1749,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1757,16 +1766,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1774,16 +1783,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1791,16 +1800,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1808,16 +1817,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1825,16 +1834,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1842,16 +1851,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1859,16 +1868,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E36" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1876,16 +1885,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1893,16 +1902,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1910,16 +1919,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1927,16 +1936,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1944,16 +1953,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1961,16 +1970,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1978,16 +1987,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1995,16 +2004,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2012,16 +2021,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2029,16 +2038,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2046,16 +2055,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2063,16 +2072,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2080,16 +2089,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2097,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E50" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2114,16 +2123,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E51" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2131,16 +2140,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2148,16 +2157,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2165,16 +2174,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2182,16 +2191,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2199,16 +2208,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2216,16 +2225,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2233,16 +2242,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2250,16 +2259,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2267,16 +2276,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2284,16 +2293,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2301,16 +2310,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2318,16 +2327,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2335,16 +2344,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2352,16 +2361,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2369,16 +2378,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2386,16 +2395,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2403,16 +2412,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2420,16 +2429,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2437,16 +2446,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2454,16 +2463,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2471,16 +2480,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2488,16 +2497,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2505,16 +2514,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2522,16 +2531,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2539,16 +2548,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2556,16 +2565,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2573,16 +2582,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2590,16 +2599,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2607,16 +2616,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2624,16 +2633,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2641,16 +2650,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2658,16 +2667,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2675,16 +2684,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2692,16 +2701,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2709,16 +2718,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2726,16 +2735,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2743,16 +2752,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2760,16 +2769,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2777,16 +2786,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2794,16 +2803,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2811,16 +2820,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2828,16 +2837,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2845,16 +2854,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2862,16 +2871,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2879,16 +2888,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2896,16 +2905,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2913,16 +2922,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2930,16 +2939,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2947,16 +2956,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2964,16 +2973,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2981,16 +2990,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2998,16 +3007,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3015,16 +3024,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3032,16 +3041,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3049,16 +3058,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E106" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3066,16 +3075,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3083,16 +3092,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3100,16 +3109,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3117,16 +3126,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3134,16 +3143,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3151,16 +3160,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D112" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3168,16 +3177,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D113" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3185,16 +3194,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D114" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E114" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3202,16 +3211,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D115" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3219,16 +3228,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D116" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E116" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3236,16 +3245,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D117" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3253,16 +3262,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D118" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E118" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3270,16 +3279,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E119" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3287,16 +3296,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3304,16 +3313,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D121" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3321,16 +3330,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3338,16 +3347,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3355,16 +3364,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E124" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3372,16 +3381,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E125" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3389,16 +3398,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E126" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3406,16 +3415,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E127" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3423,16 +3432,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E128" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3440,16 +3449,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D129" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E129" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3457,16 +3466,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E130" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3474,16 +3483,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3491,16 +3500,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D132" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E132" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3508,16 +3517,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D133" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E133" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3525,16 +3534,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D134" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E134" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3542,16 +3551,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E135" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3559,16 +3568,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3576,16 +3585,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3593,16 +3602,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D138" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E138" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3610,16 +3619,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E139" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3627,16 +3636,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D140" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E140" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="295">
   <si>
     <t>pali_1</t>
   </si>
@@ -31,12 +31,18 @@
     <t>sbs_class</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -46,300 +52,294 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
   </si>
   <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>bāla 2</t>
   </si>
   <si>
@@ -352,75 +352,75 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
-    <t>vadati 1</t>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>passati 1</t>
   </si>
   <si>
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -430,27 +430,24 @@
     <t>ehi</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
   </si>
   <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
-    <t>paṭiggaṇhāti 1</t>
-  </si>
-  <si>
-    <t>adj</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
@@ -460,12 +457,18 @@
     <t>imp</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -475,300 +478,294 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
@@ -781,75 +778,75 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>sees</t>
   </si>
   <si>
     <t>recites; chants; lit. points up</t>
   </si>
   <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -859,25 +856,22 @@
     <t>come!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>hears</t>
   </si>
   <si>
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to)</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>knows; understands</t>
-  </si>
-  <si>
-    <t>takes; accepts; receives</t>
-  </si>
-  <si>
-    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -1293,13 +1287,13 @@
         <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1307,16 +1301,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1324,16 +1318,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1341,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1358,16 +1352,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1375,16 +1369,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1392,16 +1386,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1409,16 +1403,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1426,16 +1420,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1443,16 +1437,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1460,16 +1454,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1477,16 +1471,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1494,16 +1488,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1511,16 +1505,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1528,16 +1522,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1545,16 +1539,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1562,16 +1556,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1579,16 +1573,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1596,16 +1590,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1613,16 +1607,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1630,16 +1624,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1647,16 +1641,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1664,16 +1658,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1681,16 +1675,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1698,16 +1692,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1715,16 +1709,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1732,16 +1726,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1749,16 +1743,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1766,16 +1760,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1783,16 +1777,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1800,16 +1794,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1817,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1834,16 +1828,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1851,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1868,16 +1862,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1885,16 +1879,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1902,16 +1896,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1919,16 +1913,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1936,16 +1930,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1953,16 +1947,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1970,16 +1964,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1987,16 +1981,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2004,16 +1998,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2021,16 +2015,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2038,16 +2032,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2055,16 +2049,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2072,16 +2066,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2089,16 +2083,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2106,16 +2100,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2123,16 +2117,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2140,16 +2134,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2157,16 +2151,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2174,16 +2168,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2191,16 +2185,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2208,16 +2202,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2225,16 +2219,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2242,16 +2236,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2259,16 +2253,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2276,16 +2270,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2293,16 +2287,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2310,16 +2304,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2327,16 +2321,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2344,16 +2338,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2361,16 +2355,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2378,16 +2372,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2395,16 +2389,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2412,16 +2406,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2429,16 +2423,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2446,16 +2440,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2463,16 +2457,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2480,16 +2474,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2497,16 +2491,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2514,16 +2508,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2531,16 +2525,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2548,16 +2542,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2565,16 +2559,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2582,16 +2576,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2599,16 +2593,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2616,16 +2610,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2633,16 +2627,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2650,16 +2644,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2667,16 +2661,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2684,16 +2678,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2701,16 +2695,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2718,16 +2712,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2735,16 +2729,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2752,16 +2746,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2769,16 +2763,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2786,16 +2780,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2803,16 +2797,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2820,16 +2814,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2837,16 +2831,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2854,16 +2848,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2871,16 +2865,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2888,16 +2882,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2905,16 +2899,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2922,16 +2916,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2939,16 +2933,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2956,16 +2950,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2973,16 +2967,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2990,16 +2984,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3007,16 +3001,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3024,16 +3018,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3041,16 +3035,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3058,16 +3052,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3075,16 +3069,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3092,16 +3086,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3109,16 +3103,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3126,16 +3120,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3143,16 +3137,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3160,16 +3154,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3177,16 +3171,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3194,16 +3188,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3211,16 +3205,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E115" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3228,16 +3222,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3245,16 +3239,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3262,16 +3256,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E118" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3279,16 +3273,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3296,16 +3290,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E120" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3313,16 +3307,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3330,16 +3324,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E122" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3347,16 +3341,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E123" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3364,16 +3358,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3381,16 +3375,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3398,16 +3392,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3415,16 +3409,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3432,16 +3426,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E128" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3449,16 +3443,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E129" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3466,16 +3460,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3483,16 +3477,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E131" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3500,16 +3494,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D132" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E132" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3517,16 +3511,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D133" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E133" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3534,16 +3528,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D134" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E134" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3551,16 +3545,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D135" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" t="s">
         <v>294</v>
-      </c>
-      <c r="E135" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3568,16 +3562,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D136" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" t="s">
         <v>294</v>
-      </c>
-      <c r="E136" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3588,13 +3582,13 @@
         <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D137" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" t="s">
         <v>294</v>
-      </c>
-      <c r="E137" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3602,16 +3596,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" t="s">
         <v>294</v>
-      </c>
-      <c r="E138" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3619,16 +3613,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D139" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" t="s">
         <v>294</v>
-      </c>
-      <c r="E139" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3636,16 +3630,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D140" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" t="s">
         <v>294</v>
-      </c>
-      <c r="E140" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -610,7 +610,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>

--- a/pali-class/vocab/vocab-class3.xlsx
+++ b/pali-class/vocab/vocab-class3.xlsx
@@ -76,246 +76,246 @@
     <t>cāga 2</t>
   </si>
   <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -502,244 +502,244 @@
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
   </si>
   <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
